--- a/ドキュメント/その他/残タスク(対戦).xlsx
+++ b/ドキュメント/その他/残タスク(対戦).xlsx
@@ -645,70 +645,70 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,6 +991,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -1001,12 +1004,12 @@
     <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
     <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1016,52 +1019,52 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:18" ht="15" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1072,13 +1075,13 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="23">
         <v>1.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>44915</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>44915</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1090,29 +1093,29 @@
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="22">
         <v>4</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>44915</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>44915</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="13">
         <f>COUNTIF(G:G,"済")</f>
         <v>4</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="15">
         <f>SUM(Q3:Q4)</f>
         <v>25</v>
       </c>
@@ -1124,11 +1127,11 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5">
+      <c r="D4" s="24"/>
+      <c r="E4" s="4">
         <v>44915</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>44915</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1140,25 +1143,25 @@
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5">
+      <c r="J4" s="22"/>
+      <c r="K4" s="4">
         <v>44915</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>44915</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="21">
+      <c r="O4" s="21"/>
+      <c r="P4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="13">
         <f>COUNTIF(G:G,"未")</f>
         <v>21</v>
       </c>
-      <c r="R4" s="24"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1167,43 +1170,43 @@
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45281</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>45281</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="13">
         <f>COUNTIF(M:M,"済")</f>
         <v>2</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="15">
         <f>SUM(Q5:Q6)</f>
         <v>12</v>
       </c>
@@ -1215,488 +1218,488 @@
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44929</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>44929</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7">
+      <c r="J6" s="5"/>
+      <c r="K6" s="6">
         <v>44934</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="21">
+      <c r="L6" s="6"/>
+      <c r="M6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="13">
         <f>COUNTIF(M:M,"未")</f>
         <v>10</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
         <v>44933</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7">
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
         <v>44934</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>44933</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7">
+      <c r="J8" s="5"/>
+      <c r="K8" s="6">
         <v>44935</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="6" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <f>SUM(Q3,Q5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
         <v>44933</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7">
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
         <v>44935</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="L9" s="6"/>
+      <c r="M9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="5">
         <f>SUM(Q4,Q6)</f>
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
         <v>44933</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7">
+      <c r="J10" s="5"/>
+      <c r="K10" s="6">
         <v>44935</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7">
+      <c r="J11" s="5"/>
+      <c r="K11" s="6">
         <v>44936</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="6" t="s">
+      <c r="L11" s="6"/>
+      <c r="M11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7">
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
         <v>44934</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7">
+      <c r="J12" s="5"/>
+      <c r="K12" s="6">
         <v>44936</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
         <v>44934</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7">
+      <c r="J13" s="5"/>
+      <c r="K13" s="6">
         <v>44955</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7">
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
         <v>44935</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7">
+      <c r="J14" s="5"/>
+      <c r="K14" s="6">
         <v>44955</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="6" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7">
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
         <v>44935</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7">
+      <c r="D16" s="5"/>
+      <c r="E16" s="6">
         <v>44935</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
         <v>44936</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6">
         <v>44936</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7">
+      <c r="D19" s="5"/>
+      <c r="E19" s="6">
         <v>44955</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="18"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7">
+      <c r="D20" s="5"/>
+      <c r="E20" s="6">
         <v>44955</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7">
+      <c r="D22" s="5"/>
+      <c r="E22" s="6">
         <v>44955</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6">
         <v>44955</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7">
+      <c r="D24" s="5"/>
+      <c r="E24" s="6">
         <v>44955</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6">
         <v>44956</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6">
         <v>44957</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6">
         <v>44959</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="1"/>
@@ -1713,6 +1716,7 @@
   </sheetData>
   <autoFilter ref="B2:M2"/>
   <mergeCells count="9">
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="B11:B20"/>
@@ -1721,11 +1725,10 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="Q4" formula="1"/>
   </ignoredErrors>

--- a/ドキュメント/その他/残タスク(対戦).xlsx
+++ b/ドキュメント/その他/残タスク(対戦).xlsx
@@ -549,7 +549,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +687,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -697,9 +706,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,6 +716,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,9 +1125,9 @@
       </c>
       <c r="Q3" s="13">
         <f>COUNTIF(G:G,"済")</f>
-        <v>4</v>
-      </c>
-      <c r="R3" s="15">
+        <v>5</v>
+      </c>
+      <c r="R3" s="16">
         <f>SUM(Q3:Q4)</f>
         <v>25</v>
       </c>
@@ -1159,9 +1171,9 @@
       </c>
       <c r="Q4" s="13">
         <f>COUNTIF(G:G,"未")</f>
-        <v>21</v>
-      </c>
-      <c r="R4" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1182,7 +1194,7 @@
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1206,7 +1218,7 @@
         <f>COUNTIF(M:M,"済")</f>
         <v>2</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="16">
         <f>SUM(Q5:Q6)</f>
         <v>12</v>
       </c>
@@ -1230,7 +1242,7 @@
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1250,7 +1262,7 @@
         <f>COUNTIF(M:M,"未")</f>
         <v>10</v>
       </c>
-      <c r="R6" s="16"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
@@ -1267,7 +1279,7 @@
       <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1295,7 +1307,7 @@
       <c r="G8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1324,7 @@
       </c>
       <c r="Q8" s="5">
         <f>SUM(Q3,Q5)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1330,7 +1342,7 @@
       <c r="G9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1347,25 +1359,29 @@
       </c>
       <c r="Q9" s="5">
         <f>SUM(Q4,Q6)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
         <v>44933</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="20"/>
+      <c r="F10" s="26">
+        <v>44933</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="15"/>
       <c r="I10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1402,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1400,7 +1416,7 @@
       <c r="G11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1414,7 +1430,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1442,7 @@
       <c r="G12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1440,7 +1456,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1468,7 @@
       <c r="G13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1482,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1494,7 @@
       <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1492,7 +1508,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1524,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1522,7 +1538,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1554,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1554,7 +1570,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1570,7 +1586,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
@@ -1586,7 +1602,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1604,7 +1620,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="20"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1636,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="20"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1652,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="20"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="5" t="s">
         <v>16</v>
       </c>

--- a/ドキュメント/その他/残タスク(対戦).xlsx
+++ b/ドキュメント/その他/残タスク(対戦).xlsx
@@ -339,50 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再入室した際に普通の入室メソッドではなく、再入場メソッドを使用して入場する
-普通の入室メソッドだと部屋の情報が消えてしまうため</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ニュウシツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウシツ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>サイニュウジョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウジョウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ニュウシツ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>場風の文言をプレイヤー視点ごとに合わせるようにする</t>
     <rPh sb="0" eb="1">
       <t>バ</t>
@@ -502,6 +458,66 @@
     <t>相手</t>
     <rPh sb="0" eb="2">
       <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入室した際に普通の入室メソッドではなく、再入場メソッドを使用して入場する
+普通の入室メソッドだと部屋の情報が消えてしまうため
+時間を修正して入室メソッドを使用できるように修正</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サイニュウジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,9 +688,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -687,6 +700,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -717,11 +736,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
@@ -1068,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1087,7 +1103,7 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="24">
         <v>1.5</v>
       </c>
       <c r="E3" s="4">
@@ -1105,7 +1121,7 @@
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="23">
         <v>4</v>
       </c>
       <c r="K3" s="4">
@@ -1117,17 +1133,17 @@
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="13" t="s">
+      <c r="O3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <f>COUNTIF(G:G,"済")</f>
-        <v>5</v>
-      </c>
-      <c r="R3" s="16">
+        <v>6</v>
+      </c>
+      <c r="R3" s="17">
         <f>SUM(Q3:Q4)</f>
         <v>25</v>
       </c>
@@ -1139,7 +1155,7 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="4">
         <v>44915</v>
       </c>
@@ -1155,7 +1171,7 @@
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="4">
         <v>44915</v>
       </c>
@@ -1165,15 +1181,15 @@
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="O4" s="22"/>
+      <c r="P4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="12">
         <f>COUNTIF(G:G,"未")</f>
-        <v>20</v>
-      </c>
-      <c r="R4" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1194,31 +1210,31 @@
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="11" t="s">
-        <v>33</v>
+      <c r="K5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <f>COUNTIF(M:M,"済")</f>
         <v>2</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="17">
         <f>SUM(Q5:Q6)</f>
         <v>12</v>
       </c>
@@ -1228,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -1242,7 +1258,7 @@
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1252,17 +1268,17 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="13">
+        <v>34</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="12">
         <f>COUNTIF(M:M,"未")</f>
         <v>10</v>
       </c>
-      <c r="R6" s="17"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
@@ -1277,9 +1293,9 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1289,25 +1305,29 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="C8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="15">
         <v>44933</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15">
+        <v>44934</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1317,14 +1337,14 @@
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="5">
         <f>SUM(Q3,Q5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1340,9 +1360,9 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1352,36 +1372,36 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="5">
         <f>SUM(Q4,Q6)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="15">
         <v>44933</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="15">
         <v>44933</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1391,10 +1411,10 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
@@ -1402,21 +1422,21 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1426,11 +1446,11 @@
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1440,9 +1460,9 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1452,11 +1472,11 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1466,9 +1486,9 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1478,11 +1498,11 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1492,9 +1512,9 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1504,11 +1524,11 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1518,13 +1538,13 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1534,11 +1554,11 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1548,13 +1568,13 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1564,13 +1584,13 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1580,13 +1600,13 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
@@ -1596,31 +1616,31 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="11" t="s">
-        <v>33</v>
+      <c r="E21" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
@@ -1630,13 +1650,13 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
@@ -1646,13 +1666,13 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1682,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1680,7 +1700,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1690,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6">
@@ -1698,13 +1718,13 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1716,7 +1736,7 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
